--- a/backend/database/PostgreSQL-last.xlsx
+++ b/backend/database/PostgreSQL-last.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="last" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -361,7 +361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/backend/database/PostgreSQL-last.xlsx
+++ b/backend/database/PostgreSQL-last.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>COMMIT TRANSACTION;</t>
+  </si>
+  <si>
+    <t>ALTER SEQUENCE orders_order_id_seq RESTART WITH 10;</t>
+  </si>
+  <si>
+    <t>ALTER SEQUENCE persons_person_id_seq RESTART WITH 10;</t>
   </si>
 </sst>
 </file>
@@ -52,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -367,12 +376,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
